--- a/Web-Page/Page-Completion-Tracker.xlsx
+++ b/Web-Page/Page-Completion-Tracker.xlsx
@@ -113,13 +113,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>Email sign up</t>
-  </si>
-  <si>
     <t>tips and info</t>
   </si>
   <si>
     <t>service req</t>
+  </si>
+  <si>
+    <t>Outages</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,12 +458,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -474,20 +474,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,47 +532,47 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -580,23 +580,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -604,31 +604,31 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -636,42 +636,42 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Web-Page/Page-Completion-Tracker.xlsx
+++ b/Web-Page/Page-Completion-Tracker.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Page name</t>
   </si>
@@ -98,9 +98,6 @@
     <t>power theft</t>
   </si>
   <si>
-    <t>questions</t>
-  </si>
-  <si>
     <t>employment</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>tips and info</t>
-  </si>
-  <si>
-    <t>service req</t>
   </si>
   <si>
     <t>Outages</t>
@@ -438,10 +432,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +457,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -471,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -479,7 +473,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -487,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,7 +489,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -503,15 +497,15 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,15 +521,15 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -543,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -551,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -567,7 +561,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -575,7 +569,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +577,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -591,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -599,55 +593,55 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -655,27 +649,11 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B28">
+  <autoFilter ref="A1:B26">
     <filterColumn colId="1">
       <filters>
         <filter val="No"/>

--- a/Web-Page/Page-Completion-Tracker.xlsx
+++ b/Web-Page/Page-Completion-Tracker.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -524,12 +524,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -548,12 +548,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">

--- a/Web-Page/Page-Completion-Tracker.xlsx
+++ b/Web-Page/Page-Completion-Tracker.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">

--- a/Web-Page/Page-Completion-Tracker.xlsx
+++ b/Web-Page/Page-Completion-Tracker.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Page name</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Outages</t>
+  </si>
+  <si>
+    <t>energy audit</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -508,7 +511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -516,7 +519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -572,12 +575,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -652,8 +655,16 @@
         <v>25</v>
       </c>
     </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B26">
+  <autoFilter ref="A1:B27">
     <filterColumn colId="1">
       <filters>
         <filter val="No"/>
